--- a/biology/Botanique/Dimerocostus/Dimerocostus.xlsx
+++ b/biology/Botanique/Dimerocostus/Dimerocostus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimerocostus Kuntze (1891) est un genre de trois espèces de plantes phanérogames appartenant à la famille des Costaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 février 2012)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 février 2012)
 Dimerocostus argenteus(Ruiz &amp; Pav.) Maas(1968)
 Dimerocostus cryptocalyx N.R.Salinas &amp; Betancur(2004)
 Dimerocostus strobilaceusKuntze (1891)
@@ -548,9 +562,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 février 2012)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 février 2012)
 Dimerocostus bicolor J.F.Macbr. (1930) = Dimerocostus argenteus(Ruiz &amp; Pav.) Maas(1968)
 Dimerocostus bolivianus(Rusby) Loes. (1929) = Dimerocostus argenteus(Ruiz &amp; Pav.) Maas(1968)
 Dimerocostus elongatus Huber (1906) = Dimerocostus strobilaceus subsp. strobilaceus
